--- a/config/shopxo.xlsx
+++ b/config/shopxo.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -36,6 +36,13 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
@@ -45,6 +52,66 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -59,7 +126,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -67,67 +134,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,31 +157,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
@@ -183,73 +190,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,19 +340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,73 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,33 +398,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -447,20 +443,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +472,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -487,10 +500,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -499,145 +512,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -992,10 +1006,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="13.375" customWidth="1" style="2" min="2" max="2"/>
-    <col width="7.375" customWidth="1" style="2" min="3" max="3"/>
-    <col width="55" customWidth="1" style="2" min="4" max="4"/>
-    <col width="44.875" customWidth="1" style="2" min="5" max="5"/>
+    <col width="13.375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="7.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="55" customWidth="1" style="1" min="4" max="4"/>
+    <col width="44.875" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1077,7 +1091,7 @@
           <t>visit</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>http://39.98.138.157/shopxo/index.php</t>
         </is>
@@ -1193,7 +1207,7 @@
           <t>退出</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>

--- a/config/shopxo.xlsx
+++ b/config/shopxo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19215" windowHeight="7590" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19815" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -36,29 +36,16 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -73,22 +60,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -97,21 +84,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -126,15 +98,37 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -149,16 +143,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -170,14 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -190,7 +183,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +243,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,31 +303,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,55 +339,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,79 +363,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0066ff00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -398,8 +390,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,38 +399,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,17 +420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +454,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -500,10 +492,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -512,19 +504,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -533,125 +525,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -998,224 +993,425 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col width="13.375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="7.375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="55" customWidth="1" style="1" min="4" max="4"/>
-    <col width="44.875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.5" customWidth="1" style="1" min="4" max="4"/>
+    <col width="55" customWidth="1" style="1" min="5" max="5"/>
+    <col width="38.625" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
+          <t>用例描述</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>关键字</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>元素路径</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>输入内容</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="I1" s="0" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>CHR</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="n">
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="n">
+      <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>http://39.98.138.157/shopxo/index.php</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n">
+      <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>//a[text()='登录']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="n">
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>accounts</t>
         </is>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>666666</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
+      <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>111111</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>/html/body/div[4]/div/div[2]/div[2]/form/div[3]/button</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
+      <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>assert_text</t>
         </is>
       </c>
-      <c r="C9" s="0" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D9" s="0" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>//a[text()='退出']</t>
         </is>
       </c>
-      <c r="G9" s="0" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>退出</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>quit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>密码错误</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>http://39.98.138.157/shopxo/index.php</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>//a[text()='登录']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>accounts</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>pwd</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>/html/body/div[4]/div/div[2]/div[2]/form/div[3]/button</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>assert_text</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>//a[text()='退出']</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>quit</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId1"/>
+    <hyperlink ref="F4" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId3"/>
+    <hyperlink ref="F13" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId4"/>
+    <hyperlink ref="F4" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId3"/>
+    <hyperlink ref="F13" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/config/shopxo.xlsx
+++ b/config/shopxo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19815" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7860" windowWidth="19815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -37,15 +37,83 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -60,14 +128,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -75,53 +143,23 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,44 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -183,6 +183,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -195,175 +213,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,11 +387,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -399,8 +405,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,17 +426,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,13 +444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,236 +474,300 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="9" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="34" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -996,15 +1064,15 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I18" sqref="I9 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="13.375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="8.5" customWidth="1" style="1" min="4" max="4"/>
-    <col width="55" customWidth="1" style="1" min="5" max="5"/>
-    <col width="38.625" customWidth="1" style="1" min="6" max="6"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="8.5"/>
+    <col customWidth="1" max="5" min="5" style="1" width="55"/>
+    <col customWidth="1" max="6" min="6" style="1" width="38.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1408,12 +1476,10 @@
     <mergeCell ref="A11:A19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId3"/>
-    <hyperlink ref="F13" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId4"/>
-    <hyperlink ref="F4" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId3"/>
-    <hyperlink ref="F13" tooltip="http://39.98.138.157/shopxo/index.php" display="http://39.98.138.157/shopxo/index.php" r:id="rId4"/>
+    <hyperlink display="http://39.98.138.157/shopxo/index.php" ref="F4" tooltip="http://39.98.138.157/shopxo/index.php" r:id="rId1"/>
+    <hyperlink display="http://39.98.138.157/shopxo/index.php" ref="F13" tooltip="http://39.98.138.157/shopxo/index.php" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1432,7 +1498,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1451,7 +1517,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>